--- a/Sensitivity plots.xlsx
+++ b/Sensitivity plots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Viranca_Files\Documents\Academics\MSc1\AE4441-16_OO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Viranca_Files\Documents\Academics\MSc1\AE4441-16_OO\AE4441-16-Operation-Optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1DB9B6-E5EA-43CA-9538-D1ED10A6A658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F728C6-FD55-45C6-B45F-B22A972A202F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{0FD5554C-141B-4080-BC97-24B43688876C}"/>
+    <workbookView xWindow="-12084" yWindow="2532" windowWidth="23040" windowHeight="12204" xr2:uid="{0FD5554C-141B-4080-BC97-24B43688876C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -155,7 +155,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4855B0-F1B1-4313-AA58-D684164E480E}">
   <dimension ref="A11:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,19 +511,19 @@
         <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>157.230978653373</v>
+        <v>157.989555710258</v>
       </c>
       <c r="C12" s="1">
-        <v>52.4033333333333</v>
+        <v>52.5966666666666</v>
       </c>
       <c r="D12" s="1">
-        <v>1.5723097865337301</v>
+        <v>1.5798955571025799</v>
       </c>
       <c r="E12" s="1">
-        <v>3.00215788420901</v>
+        <v>3.0060086455907</v>
       </c>
       <c r="F12" s="1">
-        <v>0.46815009685014197</v>
+        <v>0.46250174703312102</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -531,19 +531,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>168.69369412858899</v>
+        <v>169.87124610192899</v>
       </c>
       <c r="C13" s="1">
-        <v>56.506666666666597</v>
+        <v>56.896666666666597</v>
       </c>
       <c r="D13" s="1">
-        <v>1.6869369412858899</v>
+        <v>1.6987124610192901</v>
       </c>
       <c r="E13" s="1">
-        <v>2.9872184959080701</v>
+        <v>2.9877110044347899</v>
       </c>
       <c r="F13" s="1">
-        <v>0.45833628967692702</v>
+        <v>0.45842120302546602</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -551,19 +551,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>145.25596436705601</v>
+        <v>146.39279815936001</v>
       </c>
       <c r="C14" s="1">
-        <v>47.79</v>
+        <v>48.15</v>
       </c>
       <c r="D14" s="1">
-        <v>1.4525596436705599</v>
+        <v>1.4639279815935999</v>
       </c>
       <c r="E14" s="1">
-        <v>3.04009324397789</v>
+        <v>3.0429543612540702</v>
       </c>
       <c r="F14" s="1">
-        <v>0.46481870699123901</v>
+        <v>0.45830191710523299</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -571,19 +571,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>152.92016449801901</v>
+        <v>152.59348598717199</v>
       </c>
       <c r="C15" s="1">
-        <v>52.863333333333301</v>
+        <v>52.6</v>
       </c>
       <c r="D15" s="1">
-        <v>1.52920164498019</v>
+        <v>1.52593485987172</v>
       </c>
       <c r="E15" s="1">
-        <v>2.8944996871486199</v>
+        <v>2.90282822219234</v>
       </c>
       <c r="F15" s="1">
-        <v>0.47813767097293802</v>
+        <v>0.46754104475719099</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -591,19 +591,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>164.15011547890001</v>
+        <v>162.619795772694</v>
       </c>
       <c r="C16" s="1">
-        <v>53.1666666666666</v>
+        <v>52.643333333333302</v>
       </c>
       <c r="D16" s="1">
-        <v>1.6415011547889999</v>
+        <v>1.6261979577269401</v>
       </c>
       <c r="E16" s="1">
-        <v>3.08955133193755</v>
+        <v>3.0914423729262799</v>
       </c>
       <c r="F16" s="1">
-        <v>0.442769371444177</v>
+        <v>0.44597393077150499</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -611,19 +611,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="1">
-        <v>158.659900024091</v>
+        <v>156.96338876594299</v>
       </c>
       <c r="C17" s="1">
-        <v>52.61</v>
+        <v>52.08</v>
       </c>
       <c r="D17" s="1">
-        <v>1.5865990002409101</v>
+        <v>1.56963388765943</v>
       </c>
       <c r="E17" s="1">
-        <v>3.0175406555577799</v>
+        <v>3.0150953600032699</v>
       </c>
       <c r="F17" s="1">
-        <v>0.461574834716937</v>
+        <v>0.46291607887283798</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -631,19 +631,19 @@
         <v>12</v>
       </c>
       <c r="B18" s="1">
-        <v>157.96266229445601</v>
+        <v>158.23016137085</v>
       </c>
       <c r="C18" s="1">
-        <v>52.676666666666598</v>
+        <v>52.516666666666602</v>
       </c>
       <c r="D18" s="1">
-        <v>1.5796266229445599</v>
+        <v>1.5823016137085</v>
       </c>
       <c r="E18" s="1">
-        <v>2.9999281938010598</v>
+        <v>3.0156992001775902</v>
       </c>
       <c r="F18" s="1">
-        <v>0.462263878214621</v>
+        <v>0.46011388316074497</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -651,19 +651,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>160.100797089097</v>
+        <v>160.575766395025</v>
       </c>
       <c r="C19" s="1">
-        <v>52.44</v>
+        <v>52.413333333333298</v>
       </c>
       <c r="D19" s="1">
-        <v>1.6010079708909699</v>
+        <v>1.60575766395025</v>
       </c>
       <c r="E19" s="1">
-        <v>3.05495261896532</v>
+        <v>3.0647235518688101</v>
       </c>
       <c r="F19" s="1">
-        <v>0.44668663633594602</v>
+        <v>0.447500064023165</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -671,19 +671,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>154.29701468716101</v>
+        <v>155.86463174748599</v>
       </c>
       <c r="C20" s="1">
-        <v>52.47</v>
+        <v>52.736666666666601</v>
       </c>
       <c r="D20" s="1">
-        <v>1.5429701468716099</v>
+        <v>1.5586463174748599</v>
       </c>
       <c r="E20" s="1">
-        <v>2.9424276023055</v>
+        <v>2.9569476150798399</v>
       </c>
       <c r="F20" s="1">
-        <v>0.47522490135706102</v>
+        <v>0.46939844224904997</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,19 +691,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="1">
-        <v>132.86840510348401</v>
+        <v>158.08792154837201</v>
       </c>
       <c r="C21" s="1">
-        <v>52.23</v>
+        <v>52.676666666666598</v>
       </c>
       <c r="D21" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.5808792154837199</v>
       </c>
       <c r="E21" s="1">
-        <v>3.02041500332076</v>
+        <v>3.0028182295126098</v>
       </c>
       <c r="F21" s="1">
-        <v>0.45693195166290501</v>
+        <v>0.45839220408206599</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -711,19 +711,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="1">
-        <v>132.86840510348401</v>
+        <v>157.377114004074</v>
       </c>
       <c r="C22" s="1">
-        <v>52.316666666666599</v>
+        <v>52.365000000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.5737711400407399</v>
       </c>
       <c r="E22" s="1">
-        <v>3.0178225575648998</v>
+        <v>3.00774798048367</v>
       </c>
       <c r="F22" s="1">
-        <v>0.45827632742371799</v>
+        <v>0.45703215769018601</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -731,19 +731,19 @@
         <v>17</v>
       </c>
       <c r="B23" s="1">
-        <v>132.86840510348401</v>
+        <v>157.675852277335</v>
       </c>
       <c r="C23" s="1">
-        <v>52.39</v>
+        <v>52.424444444444397</v>
       </c>
       <c r="D23" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.57675852277335</v>
       </c>
       <c r="E23" s="1">
-        <v>3.0173171428916898</v>
+        <v>3.00999670763761</v>
       </c>
       <c r="F23" s="1">
-        <v>0.45591250756089402</v>
+        <v>0.45615899763752998</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -751,19 +751,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="1">
-        <v>132.86840510348401</v>
+        <v>156.93670698447201</v>
       </c>
       <c r="C24" s="1">
-        <v>52.324166666666599</v>
+        <v>52.311666666666603</v>
       </c>
       <c r="D24" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.56936706984472</v>
       </c>
       <c r="E24" s="1">
-        <v>3.0101171576894901</v>
+        <v>3.0019141786606198</v>
       </c>
       <c r="F24" s="1">
-        <v>0.46255918138697599</v>
+        <v>0.46369015395320801</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -771,19 +771,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="1">
-        <v>132.86840510348401</v>
+        <v>157.27977513275701</v>
       </c>
       <c r="C25" s="1">
-        <v>52.280666666666598</v>
+        <v>52.386000000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.5727977513275699</v>
       </c>
       <c r="E25" s="1">
-        <v>3.0104717365945102</v>
+        <v>3.0041722446505501</v>
       </c>
       <c r="F25" s="1">
-        <v>0.46288049449786201</v>
+        <v>0.46392849302169098</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -791,19 +791,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="1">
-        <v>132.86840510348401</v>
+        <v>157.55067971125001</v>
       </c>
       <c r="C26" s="1">
-        <v>52.338333333333303</v>
+        <v>52.454999999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.5755067971125001</v>
       </c>
       <c r="E26" s="1">
-        <v>3.01059997733558</v>
+        <v>3.0054227165017098</v>
       </c>
       <c r="F26" s="1">
-        <v>0.46308433940421201</v>
+        <v>0.46307947902121499</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -811,19 +811,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="1">
-        <v>132.86840510348401</v>
+        <v>157.55142795278101</v>
       </c>
       <c r="C27" s="1">
-        <v>52.363333333333301</v>
+        <v>52.432857142857102</v>
       </c>
       <c r="D27" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.5755142795278101</v>
       </c>
       <c r="E27" s="1">
-        <v>3.0108369965175901</v>
+        <v>3.0067162394599798</v>
       </c>
       <c r="F27" s="1">
-        <v>0.46262993899168597</v>
+        <v>0.462663438585459</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -831,19 +831,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="1">
-        <v>132.86840510348401</v>
+        <v>157.76315978441301</v>
       </c>
       <c r="C28" s="1">
-        <v>52.394583333333301</v>
+        <v>52.490833333333299</v>
       </c>
       <c r="D28" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.57763159784413</v>
       </c>
       <c r="E28" s="1">
-        <v>3.0101438127512199</v>
+        <v>3.0075000470650002</v>
       </c>
       <c r="F28" s="1">
-        <v>0.46278206616522999</v>
+        <v>0.46241047528083401</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -851,19 +851,19 @@
         <v>23</v>
       </c>
       <c r="B29" s="1">
-        <v>132.86840510348401</v>
+        <v>157.91924563113099</v>
       </c>
       <c r="C29" s="1">
-        <v>52.406296296296297</v>
+        <v>52.5362962962963</v>
       </c>
       <c r="D29" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.57919245631131</v>
       </c>
       <c r="E29" s="1">
-        <v>3.0097192430611401</v>
+        <v>3.0078305432374801</v>
       </c>
       <c r="F29" s="1">
-        <v>0.46279896551882199</v>
+        <v>0.46197512847698802</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,19 +871,19 @@
         <v>24</v>
       </c>
       <c r="B30" s="1">
-        <v>132.86840510348401</v>
+        <v>157.969824970986</v>
       </c>
       <c r="C30" s="1">
-        <v>52.430666666666603</v>
+        <v>52.558666666666603</v>
       </c>
       <c r="D30" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.5796982497098599</v>
       </c>
       <c r="E30" s="1">
-        <v>3.0098934529660899</v>
+        <v>3.0075561328883902</v>
       </c>
       <c r="F30" s="1">
-        <v>0.46319437716712603</v>
+        <v>0.461548212957408</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -891,19 +891,19 @@
         <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>132.86840510348401</v>
+        <v>158.283618858138</v>
       </c>
       <c r="C31" s="1">
-        <v>52.425757575757501</v>
+        <v>52.584242424242397</v>
       </c>
       <c r="D31" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.58283618858138</v>
       </c>
       <c r="E31" s="1">
-        <v>3.0142963401511098</v>
+        <v>3.01206846716528</v>
       </c>
       <c r="F31" s="1">
-        <v>0.46171109838069502</v>
+        <v>0.459822996575112</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -911,19 +911,19 @@
         <v>26</v>
       </c>
       <c r="B32" s="1">
-        <v>132.86840510348401</v>
+        <v>157.92093457394299</v>
       </c>
       <c r="C32" s="1">
-        <v>52.451944444444401</v>
+        <v>52.549166666666601</v>
       </c>
       <c r="D32" s="1">
-        <v>1.3286840510348401</v>
+        <v>1.5792093457394301</v>
       </c>
       <c r="E32" s="1">
-        <v>3.0084729339386098</v>
+        <v>3.0072016066915799</v>
       </c>
       <c r="F32" s="1">
-        <v>0.46290362552042802</v>
+        <v>0.46158653546349598</v>
       </c>
     </row>
   </sheetData>

--- a/Sensitivity plots.xlsx
+++ b/Sensitivity plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Viranca_Files\Documents\Academics\MSc1\AE4441-16_OO\AE4441-16-Operation-Optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F728C6-FD55-45C6-B45F-B22A972A202F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FC9032-D7AE-46A6-8273-56AEBAFD4B70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12084" yWindow="2532" windowWidth="23040" windowHeight="12204" xr2:uid="{0FD5554C-141B-4080-BC97-24B43688876C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{0FD5554C-141B-4080-BC97-24B43688876C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,6 +171,1012 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objective Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Basemodel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>roomcountplus10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>roomcountmin10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rentplus10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rentmin10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>locationplus10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>locationmin10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>budgetplus10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>budgetmin10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bscplus10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bscmin10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>genderplus10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>gendermin10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>nationalityplus10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>nationalitymin10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3meplus10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>aeplus10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>csplus10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ioplus10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>preferenceplus10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>preferencemin10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>157.989555710258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.87124610192899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146.39279815936001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152.59348598717199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.619795772694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156.96338876594299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158.23016137085</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160.575766395025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155.86463174748599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158.08792154837201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>157.377114004074</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>157.675852277335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>156.93670698447201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>157.27977513275701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>157.55067971125001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>157.55142795278101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157.76315978441301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.91924563113099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>157.969824970986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>158.283618858138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>157.92093457394299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76F6-4F0E-B5AF-7F2EB935D247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="563548767"/>
+        <c:axId val="563555423"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="563548767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563555423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="563555423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563548767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147917</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>98610</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD1D11A-245E-47CC-9450-4879834D503B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4855B0-F1B1-4313-AA58-D684164E480E}">
-  <dimension ref="A11:F32"/>
+  <dimension ref="A11:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,448 +1492,449 @@
     <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1">
         <v>157.989555710258</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>52.5966666666666</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>1.5798955571025799</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>3.0060086455907</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.46250174703312102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>169.87124610192899</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>56.896666666666597</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>1.6987124610192901</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>2.9877110044347899</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.45842120302546602</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1">
         <v>146.39279815936001</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>48.15</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>1.4639279815935999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>3.0429543612540702</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>0.45830191710523299</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>152.59348598717199</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>52.6</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>1.52593485987172</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>2.90282822219234</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>0.46754104475719099</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1">
         <v>162.619795772694</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>52.643333333333302</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>1.6261979577269401</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>3.0914423729262799</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>0.44597393077150499</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1">
         <v>156.96338876594299</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>52.08</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>1.56963388765943</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>3.0150953600032699</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.46291607887283798</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>158.23016137085</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>52.516666666666602</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>1.5823016137085</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>3.0156992001775902</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>0.46011388316074497</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>160.575766395025</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>52.413333333333298</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>1.60575766395025</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>3.0647235518688101</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>0.447500064023165</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="1">
         <v>155.86463174748599</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>52.736666666666601</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>1.5586463174748599</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>2.9569476150798399</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>0.46939844224904997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1">
         <v>158.08792154837201</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>52.676666666666598</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>1.5808792154837199</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>3.0028182295126098</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>0.45839220408206599</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="1">
         <v>157.377114004074</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>52.365000000000002</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>1.5737711400407399</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>3.00774798048367</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>0.45703215769018601</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="1">
         <v>157.675852277335</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>52.424444444444397</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>1.57675852277335</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>3.00999670763761</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0.45615899763752998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1">
         <v>156.93670698447201</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>52.311666666666603</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>1.56936706984472</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>3.0019141786606198</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>0.46369015395320801</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="1">
         <v>157.27977513275701</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>52.386000000000003</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>1.5727977513275699</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>3.0041722446505501</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>0.46392849302169098</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="1">
         <v>157.55067971125001</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>52.454999999999998</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>1.5755067971125001</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>3.0054227165017098</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>0.46307947902121499</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>157.55142795278101</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>52.432857142857102</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>1.5755142795278101</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>3.0067162394599798</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>0.462663438585459</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>157.76315978441301</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>52.490833333333299</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>1.57763159784413</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>3.0075000470650002</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>0.46241047528083401</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="1">
         <v>157.91924563113099</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>52.5362962962963</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>1.57919245631131</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>3.0078305432374801</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>0.46197512847698802</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>157.969824970986</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>52.558666666666603</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>1.5796982497098599</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>3.0075561328883902</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>0.461548212957408</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="1">
         <v>158.283618858138</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>52.584242424242397</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>1.58283618858138</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>3.01206846716528</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>0.459822996575112</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="1">
         <v>157.92093457394299</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>52.549166666666601</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>1.5792093457394301</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>3.0072016066915799</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>0.46158653546349598</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>